--- a/Data/StimulusCC.xlsx
+++ b/Data/StimulusCC.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24923"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -15,17 +15,26 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="44">
   <si>
     <t>Question</t>
   </si>
@@ -37,6 +46,33 @@
   </si>
   <si>
     <t>Source Link</t>
+  </si>
+  <si>
+    <t>Dates Used</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Did you receive the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>first federal stimulus check (max $1200 per independent adult)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> from April 2020?                                                                                     (Also known as an economic impact payment)</t>
+    </r>
   </si>
   <si>
     <t>•Yes, I received the first federal stimulus check  
@@ -52,7 +88,7 @@
       <rPr>
         <u/>
         <sz val="12"/>
-        <color indexed="12"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
@@ -60,40 +96,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Did you receive the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>first federal stimulus check (max $1200 per independent adult)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> from April 2020?                                                                                     (Also known as an economic impact payment)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://www2.census.gov/programs-surveys/demo/technical-documentation/hhp/Phase3_Questionnaire_01_06_21_English.pdf</t>
-    </r>
+    <t>02/23/2021-03/04/2021</t>
   </si>
   <si>
     <t>[Display this question if "Did you receive the first federal stimulus check (max $1200 per independent adult) from April 2020?" = Yes, I received the first federal stimulus check]
@@ -104,6 +107,50 @@
     <t>•Mostly spend it
 •Mostly save it  
 •Mostly use it to pay off debt</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[Display this question if "Did you receive the first federal stimulus check (max $1200 per independent adult) from April 2020?" = Yes, I received the first federal stimulus check]
+What did you and your household spend the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>first</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>federal stimulus check in 2020</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> on? Select all that apply.</t>
+    </r>
   </si>
   <si>
     <t>•Food
@@ -118,7 +165,29 @@
 •Other, please describe:</t>
   </si>
   <si>
-    <t>Occurrence</t>
+    <r>
+      <t xml:space="preserve">[Display this question if "Did you receive the first federal stimulus check (max $1200 per independent adult) from April 2020?" = Yes, I received the first federal stimulus check]
+Please indicate how much you agree with the following statement:“Without the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>first federal stimulus check in 2020,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I could not have paid for basic needs.”</t>
+    </r>
   </si>
   <si>
     <t>•Very inaccurate
@@ -140,8 +209,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">[Display this question if "Did you receive the first federal stimulus check (max $1200 per independent adult) from April 2020?" = Yes, I received the first federal stimulus check]
-What did you and your household spend the </t>
+      <t xml:space="preserve">Did you receive the </t>
     </r>
     <r>
       <rPr>
@@ -151,60 +219,16 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>first</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>federal stimulus check in 2020</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> on? Select all that apply.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">[Display this question if "Did you receive the first federal stimulus check (max $1200 per independent adult) from April 2020?" = Yes, I received the first federal stimulus check]
-Please indicate how much you agree with the following statement:“Without the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>first federal stimulus check in 2020,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I could not have paid for basic needs.”</t>
+      <t>second federal stimulus check (max $600 per independent adult)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> from Winter 2020-2021?                                                                       (Also known as an economic impact payment)</t>
     </r>
   </si>
   <si>
@@ -217,6 +241,31 @@
     <t>[Display this question if "Did you receive the sec ond federal stimulus check (max $600 per independent adult) from April 2020?" = Yes, I received the second federal stimulus check]
 With the second federal stimulus check in 2020, did you:     
 Select only one answer.</t>
+  </si>
+  <si>
+    <r>
+      <t>[Display this question if "Did you receive the second federal stimulus check (max $600 per independent adult) from April 2020?" = Yes, I received the second federal stimulus check]
+What did you and your household spend the</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> second federal stimulus check in 2020</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> on? Select all that apply.</t>
+    </r>
   </si>
   <si>
     <t>•Food
@@ -231,6 +280,80 @@
 •Other, please describe:</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">[Display this question if "Did you receive the second federal stimulus check (max $600 per independent adult) from April 2020?" = Yes, I received the second federal stimulus check]
+Please indicate how much you agree with the following statement:“Without the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>second federal stimulus check in winter 2020-2021</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, I could not have paid for basic needs.”</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[Display this question if "Did you receive the second federal stimulus check (max $600 per independent adult) from April 2020?" = Yes, I received the second federal stimulus check]
+In what ways was the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">second federal stimulus check in winter 2020-2021 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>helpful?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Did you receive the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>$600 unemployment bonus/benefit related to COVID-19</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> in the past year?</t>
+    </r>
+  </si>
+  <si>
     <t>•Yes, I received the COVID-19 $600 unemployment bonus
 •No, but I expect to receive the COVID-19 $600 unemployment bonus in the near future  
 •No, and I DO NOT expect to receive the $600 unemployment bonus
@@ -242,7 +365,54 @@
 Select only one answer.</t>
   </si>
   <si>
-    <t>1</t>
+    <r>
+      <t xml:space="preserve">[Display this question if "Did you receive the $600 unemployment bonus/benefit related to COVID-19 in the past year? = Yes, I received the COVID-19 $600 unemployment bonus] 
+What did you and your household spend your </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>$600 unemployment bonus/benefit from related to COVID-19</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> on? Select all that apply. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[Display this question if "Did you receive the $600 unemployment bonus/benefit related to COVID-19 in the past year? = Yes, I received the COVID-19 $600 unemployment bonus]
+Please indicate how much you agree with the following statement:“Without the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>$600 unemployment bonus/benefit from related to COVID-19</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, I could not have paid for basic needs.”</t>
+    </r>
   </si>
   <si>
     <t>[Display this question if "Did you receive the $600 unemployment bonus/benefit related to COVID-19 in the past year? = Yes, I received the COVID-19 $600 unemployment bonus]
@@ -259,6 +429,9 @@
 •Unsure if I will receive the third federal stimulus check                                           •Other, please describe: ____________</t>
   </si>
   <si>
+    <t>05/14/2021-05/28/2021</t>
+  </si>
+  <si>
     <t>[Display this question if "Did you receive the third federal stimulus check from March 2021  = Yes, I received the third federal stimulus check]   
 What did you and your household spend the third federal stimulus check from March 2021 on? Select all that apply.</t>
   </si>
@@ -270,179 +443,6 @@
   <si>
     <t xml:space="preserve">[Display this question if "Did you receive the third federal stimulus check from March 2021  = Yes, I received the third federal stimulus check] 
 In what ways was the third federal stimulus check from March 2021, helpful? </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Did you receive the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>second federal stimulus check (max $600 per independent adult)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> from Winter 2020-2021?                                                                       (Also known as an economic impact payment)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>[Display this question if "Did you receive the second federal stimulus check (max $600 per independent adult) from April 2020?" = Yes, I received the second federal stimulus check]
-What did you and your household spend the</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> second federal stimulus check in 2020</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> on? Select all that apply.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">[Display this question if "Did you receive the second federal stimulus check (max $600 per independent adult) from April 2020?" = Yes, I received the second federal stimulus check]
-Please indicate how much you agree with the following statement:“Without the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>second federal stimulus check in winter 2020-2021</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, I could not have paid for basic needs.”</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">[Display this question if "Did you receive the second federal stimulus check (max $600 per independent adult) from April 2020?" = Yes, I received the second federal stimulus check]
-In what ways was the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">second federal stimulus check in winter 2020-2021 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>helpful?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Did you receive the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>$600 unemployment bonus/benefit related to COVID-19</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> in the past year?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">[Display this question if "Did you receive the $600 unemployment bonus/benefit related to COVID-19 in the past year? = Yes, I received the COVID-19 $600 unemployment bonus] 
-What did you and your household spend your </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>$600 unemployment bonus/benefit from related to COVID-19</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> on? Select all that apply. </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">[Display this question if "Did you receive the $600 unemployment bonus/benefit related to COVID-19 in the past year? = Yes, I received the COVID-19 $600 unemployment bonus]
-Please indicate how much you agree with the following statement:“Without the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>$600 unemployment bonus/benefit from related to COVID-19</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, I could not have paid for basic needs.”</t>
-    </r>
   </si>
   <si>
     <t>Did you receive the $300 unemployment bonus/benefit related to COVID-19 in the past year?</t>
@@ -452,6 +452,18 @@
 •No, but I expect to receive the COVID-19 $300 unemployment bonus in the near future  
 •No, and I DO NOT expect to receive the $300 unemployment bonus
 •Unsure if I will receive the $300 unemployment bonus                                                                                               •Other, please describe: ____________</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://www2.census.gov/programs-surveys/demo/technical-documentation/hhp/Phase3_Questionnaire_01_06_21_English.pdf</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">[Display this question if "Did you receive the $300 unemployment bonus/benefit related to COVID-19 in the past year? = Yes, I received the COVID-19 $300 unemployment bonus]
@@ -471,7 +483,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -975,20 +987,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A229147-130F-5946-BBC4-309A5552BC1F}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="C23" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95"/>
   <cols>
-    <col min="1" max="1" width="46.83203125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="46.875" style="4" customWidth="1"/>
     <col min="2" max="2" width="70.5" style="4" customWidth="1"/>
-    <col min="3" max="3" width="24.33203125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" style="4" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="4"/>
+    <col min="3" max="3" width="24.375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="25.625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="21.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1002,315 +1015,315 @@
         <v>3</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="98" customHeight="1" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="98.1" customHeight="1">
       <c r="A2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>7</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>5</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="119" x14ac:dyDescent="0.2">
+      <c r="E2" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="119.1">
       <c r="A3" s="12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="221" x14ac:dyDescent="0.2">
+      <c r="E3" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="221.1">
       <c r="A4" s="8" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="120" x14ac:dyDescent="0.2">
+      <c r="E4" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="120">
       <c r="A5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="105">
+      <c r="A6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="12" t="s">
         <v>18</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="105" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>16</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="13"/>
-      <c r="E6" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="E6" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="102">
       <c r="A7" s="8" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="136" x14ac:dyDescent="0.2">
+      <c r="E7" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="135.94999999999999">
       <c r="A8" s="12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="221" x14ac:dyDescent="0.2">
+      <c r="E8" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="221.1">
       <c r="A9" s="8" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="135" x14ac:dyDescent="0.2">
+      <c r="E9" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="135">
       <c r="A10" s="14" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D10" s="15"/>
-      <c r="E10" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="105" x14ac:dyDescent="0.2">
+      <c r="E10" s="16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="105">
       <c r="A11" s="14" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B11" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="15" t="s">
-        <v>14</v>
-      </c>
       <c r="D11" s="15"/>
-      <c r="E11" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" customFormat="1" ht="136" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E11" s="16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" customFormat="1" ht="135.94999999999999" customHeight="1">
       <c r="A12" s="8" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>8</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" customFormat="1" ht="120" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" customFormat="1" ht="120">
       <c r="A13" s="8" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>8</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" customFormat="1" ht="238" customHeight="1" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" customFormat="1" ht="237.95" customHeight="1">
       <c r="A14" s="8" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>8</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" customFormat="1" ht="148.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" customFormat="1" ht="148.35" customHeight="1">
       <c r="A15" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D15" s="13"/>
-      <c r="E15" s="18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" customFormat="1" ht="127.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E15" s="18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" customFormat="1" ht="127.35" customHeight="1">
       <c r="A16" s="12" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>14</v>
-      </c>
       <c r="D16" s="13"/>
-      <c r="E16" s="18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="E16" s="18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="102">
       <c r="A17" s="8" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E17" s="18">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="221" x14ac:dyDescent="0.2">
+      <c r="E17" s="18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="221.1">
       <c r="A18" s="8" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="18">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" customFormat="1" ht="136" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E18" s="18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" customFormat="1" ht="135.94999999999999" customHeight="1">
       <c r="A19" s="8" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D19" s="9"/>
-      <c r="E19" s="18">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" customFormat="1" ht="136" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E19" s="18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" customFormat="1" ht="135.94999999999999" customHeight="1">
       <c r="A20" s="8" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B20" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="9" t="s">
-        <v>14</v>
-      </c>
       <c r="D20" s="9"/>
-      <c r="E20" s="18">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+      <c r="E20" s="18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" customFormat="1" ht="102">
       <c r="A21" s="19" t="s">
         <v>38</v>
       </c>
@@ -1318,105 +1331,105 @@
         <v>39</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21" s="6">
+        <v>40</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" customFormat="1" ht="221.1">
+      <c r="A22" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" customFormat="1" ht="221" x14ac:dyDescent="0.2">
-      <c r="A22" s="19" t="s">
+      <c r="C22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" s="6">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" customFormat="1" ht="187" x14ac:dyDescent="0.2">
+      <c r="E22" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" customFormat="1" ht="186.95">
       <c r="A23" s="19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D23" s="20"/>
-      <c r="E23" s="20">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" customFormat="1" ht="119" x14ac:dyDescent="0.2">
+      <c r="E23" s="20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" customFormat="1" ht="119.1">
       <c r="A24" s="19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B24" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="D24" s="21"/>
-      <c r="E24" s="21">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E24" s="21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25" s="21"/>
       <c r="D25" s="21"/>
       <c r="E25" s="21"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5">
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26" s="21"/>
       <c r="D26" s="21"/>
       <c r="E26" s="21"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5">
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27" s="21"/>
       <c r="D27" s="21"/>
       <c r="E27" s="21"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5">
       <c r="A28"/>
       <c r="B28"/>
       <c r="C28" s="21"/>
       <c r="D28" s="21"/>
       <c r="E28" s="21"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5">
       <c r="A29"/>
       <c r="B29" s="21"/>
       <c r="C29" s="21"/>
       <c r="D29" s="21"/>
       <c r="E29" s="21"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5">
       <c r="A30"/>
       <c r="B30" s="21"/>
       <c r="C30" s="21"/>
       <c r="D30" s="21"/>
       <c r="E30" s="21"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5">
       <c r="A31"/>
       <c r="B31" s="21"/>
       <c r="C31" s="21"/>
